--- a/Data_files/Part_1/Randstad_ov_times.xlsx
+++ b/Data_files/Part_1/Randstad_ov_times.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365.sharepoint.com/sites/DesigninNetwork/Gedeelde documenten/General/Excel and CSV files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\Part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_CDF3008FFE9FF3404BBFC584E37359B527ED40E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E9BE82B-FE93-4888-BC70-744B0A1FD1ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FBD4E-6A1B-44AE-94CE-FA2410B0EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="24">
   <si>
     <t>Alkmaar</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Rotterdam</t>
   </si>
   <si>
-    <t>Schiphol</t>
-  </si>
-  <si>
     <t>Spijkenisse</t>
   </si>
   <si>
@@ -107,10 +104,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>Schiphol Haarlemermeer</t>
+    <t>Locations</t>
   </si>
   <si>
-    <t>Locations</t>
+    <t>Schiphol Haarlemmermeer</t>
   </si>
 </sst>
 </file>
@@ -503,14 +500,17 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,31 +552,31 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -584,70 +584,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1">
         <v>23</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>53</v>
@@ -670,55 +670,55 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -726,70 +726,70 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1">
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1">
         <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T4" s="1">
         <v>14</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V4" s="1">
         <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -797,70 +797,70 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1">
         <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="1">
         <v>15</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -868,31 +868,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
         <v>16</v>
@@ -901,25 +901,25 @@
         <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="1">
         <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="1">
         <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T6" s="1">
         <v>37</v>
@@ -928,10 +928,10 @@
         <v>15</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -939,64 +939,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S7" s="1">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V7" s="1">
         <v>32</v>
@@ -1010,70 +1010,70 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="1">
         <v>14</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S8" s="1">
         <v>43</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V8" s="1">
         <v>14</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -1081,70 +1081,70 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1">
         <v>16</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="1">
         <v>68</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -1152,70 +1152,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1">
         <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T10" s="1">
         <v>12</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V10" s="1">
         <v>14</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
@@ -1226,67 +1226,67 @@
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1">
         <v>20</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="1">
         <v>44</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
@@ -1294,13 +1294,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -1309,55 +1309,55 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="1">
         <v>18</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -1365,70 +1365,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1">
         <v>20</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="1">
         <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V13" s="1">
         <v>44</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -1436,25 +1436,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>16</v>
@@ -1463,25 +1463,25 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="1">
         <v>33</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="1">
         <v>35</v>
@@ -1490,10 +1490,10 @@
         <v>46</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V14" s="1">
         <v>40</v>
@@ -1507,155 +1507,155 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1">
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1">
         <v>44</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="1">
         <v>18</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="1">
         <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T15" s="1">
         <v>38</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="1">
         <v>33</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -1664,123 +1664,123 @@
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1">
         <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1">
         <v>18</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="1">
         <v>33</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T17" s="1">
         <v>12</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="1">
         <v>35</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S18" s="1">
         <v>63</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W18" s="1">
         <v>7</v>
@@ -1788,22 +1788,22 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1">
         <v>52</v>
@@ -1812,46 +1812,46 @@
         <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="1">
         <v>46</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R19" s="1">
         <v>63</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W19" s="1">
         <v>47</v>
@@ -1859,164 +1859,164 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
         <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1">
         <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="1">
         <v>38</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="1">
         <v>12</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1">
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1">
         <v>32</v>
@@ -2025,16 +2025,16 @@
         <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1">
         <v>14</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="1">
         <v>44</v>
@@ -2043,84 +2043,84 @@
         <v>40</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" s="1">
         <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="1">
         <v>7</v>
@@ -2129,16 +2129,16 @@
         <v>47</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2147,6 +2147,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -2290,15 +2299,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2306,6 +2306,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917ACAB2-43CE-4537-A237-00B5E2BC97FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DDD6B5-B0F0-4EAD-964F-A52FDCC6512D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2319,14 +2327,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917ACAB2-43CE-4537-A237-00B5E2BC97FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data_files/Part_1/Randstad_ov_times.xlsx
+++ b/Data_files/Part_1/Randstad_ov_times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\Part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17FBD4E-6A1B-44AE-94CE-FA2410B0EFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BCC0CA-AA80-4E96-B9E3-A63F4D8F41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Delft</t>
-  </si>
-  <si>
-    <t>Den Haag </t>
   </si>
   <si>
     <t>Dordrecht</t>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Schiphol Haarlemmermeer</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,52 +531,52 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -584,70 +584,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
         <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="1">
         <v>23</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>53</v>
@@ -670,55 +670,55 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -726,70 +726,70 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="1">
         <v>39</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T4" s="1">
         <v>14</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1">
         <v>60</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -797,70 +797,70 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1">
         <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1">
         <v>15</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -868,31 +868,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1">
         <v>16</v>
@@ -901,25 +901,25 @@
         <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="1">
         <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="1">
         <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="1">
         <v>37</v>
@@ -928,10 +928,10 @@
         <v>15</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -939,64 +939,64 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S7" s="1">
         <v>52</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V7" s="1">
         <v>32</v>
@@ -1007,300 +1007,300 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1">
         <v>14</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S8" s="1">
         <v>43</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V8" s="1">
         <v>14</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="1">
         <v>16</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="1">
         <v>68</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1">
         <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" s="1">
         <v>12</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V10" s="1">
         <v>14</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1">
         <v>20</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1">
         <v>44</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -1309,152 +1309,152 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="1">
         <v>18</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <v>20</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13" s="1">
         <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V13" s="1">
         <v>44</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="1">
         <v>16</v>
@@ -1463,25 +1463,25 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P14" s="1">
         <v>33</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R14" s="1">
         <v>35</v>
@@ -1490,10 +1490,10 @@
         <v>46</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V14" s="1">
         <v>40</v>
@@ -1504,158 +1504,158 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1">
         <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1">
         <v>44</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" s="1">
         <v>18</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="1">
         <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T15" s="1">
         <v>38</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="1">
         <v>33</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>15</v>
@@ -1664,123 +1664,123 @@
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="1">
         <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1">
         <v>18</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="1">
         <v>33</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" s="1">
         <v>12</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N18" s="1">
         <v>35</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S18" s="1">
         <v>63</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W18" s="1">
         <v>7</v>
@@ -1788,22 +1788,22 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1">
         <v>52</v>
@@ -1812,46 +1812,46 @@
         <v>43</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="1">
         <v>46</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R19" s="1">
         <v>63</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W19" s="1">
         <v>47</v>
@@ -1859,164 +1859,164 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
         <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1">
         <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="1">
         <v>38</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="1">
         <v>12</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1">
         <v>32</v>
@@ -2025,16 +2025,16 @@
         <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1">
         <v>14</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" s="1">
         <v>44</v>
@@ -2043,84 +2043,84 @@
         <v>40</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="1">
         <v>4</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23" s="1">
         <v>7</v>
@@ -2129,16 +2129,16 @@
         <v>47</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2147,15 +2147,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -2299,6 +2290,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2306,14 +2306,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917ACAB2-43CE-4537-A237-00B5E2BC97FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92DDD6B5-B0F0-4EAD-964F-A52FDCC6512D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2327,6 +2319,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917ACAB2-43CE-4537-A237-00B5E2BC97FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
